--- a/webpack/labelled_features_file.xlsx
+++ b/webpack/labelled_features_file.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV47"/>
+  <dimension ref="A1:AV34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -677,62 +677,62 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://react.dev/_next/static/chunks/webpack-60ed361702411dc1.js</t>
+          <t>https://www.infowars.com/</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>n.l</t>
+          <t>nrWrapper</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G2" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H2" t="n">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8382978723404255</v>
       </c>
       <c r="J2" t="n">
-        <v>1.285714285714286</v>
+        <v>1.192893401015228</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M2" t="n">
-        <v>3.285714285714286</v>
+        <v>8.192893401015228</v>
       </c>
       <c r="N2" t="n">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="O2" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="P2" t="n">
-        <v>0.03214087117701576</v>
+        <v>0.04798185941043084</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01025641025641026</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="R2" t="n">
-        <v>0.02051282051282051</v>
+        <v>0.03061224489795918</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -750,47 +750,47 @@
         <v>4</v>
       </c>
       <c r="X2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y2" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>27</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="n">
         <v>3</v>
       </c>
-      <c r="Z2" t="n">
-        <v>35</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>116</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0</v>
-      </c>
       <c r="AL2" t="n">
         <v>0</v>
       </c>
@@ -804,16 +804,16 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AQ2" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AR2" t="n">
         <v>1</v>
       </c>
       <c r="AS2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT2" t="n">
         <v>1</v>
@@ -822,23 +822,19 @@
         <v>1</v>
       </c>
       <c r="AV2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://react.dev/_next/static/chunks/webpack-60ed361702411dc1.js</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>n.f.j</t>
-        </is>
-      </c>
+          <t>https://www.infowars.com/_next/static/chunks/commons.b761d06a31176680dd2f.js</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
         <v>0</v>
       </c>
@@ -846,19 +842,19 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H3" t="n">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8382978723404255</v>
       </c>
       <c r="J3" t="n">
-        <v>1.285714285714286</v>
+        <v>1.192893401015228</v>
       </c>
       <c r="K3" t="n">
         <v>2</v>
@@ -867,25 +863,25 @@
         <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>3.285714285714286</v>
+        <v>3.192893401015228</v>
       </c>
       <c r="N3" t="n">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="O3" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P3" t="n">
-        <v>0.03483835005574135</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.01025641025641026</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="R3" t="n">
-        <v>0.005128205128205128</v>
+        <v>0.00510204081632653</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -900,13 +896,13 @@
         <v>4</v>
       </c>
       <c r="X3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Y3" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="Z3" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="AA3" t="n">
         <v>0</v>
@@ -933,10 +929,10 @@
         <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>116</v>
+        <v>3</v>
       </c>
       <c r="AJ3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK3" t="n">
         <v>0</v>
@@ -954,10 +950,10 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AQ3" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -977,34 +973,38 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://react.dev/_next/static/chunks/webpack-60ed361702411dc1.js</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
+          <t>https://www.infowars.com/</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G4" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H4" t="n">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8382978723404255</v>
       </c>
       <c r="J4" t="n">
-        <v>1.285714285714286</v>
+        <v>1.192893401015228</v>
       </c>
       <c r="K4" t="n">
         <v>3</v>
@@ -1013,25 +1013,25 @@
         <v>2</v>
       </c>
       <c r="M4" t="n">
-        <v>4.285714285714286</v>
+        <v>4.192893401015228</v>
       </c>
       <c r="N4" t="n">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="O4" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P4" t="n">
-        <v>0.03823857302118172</v>
+        <v>0.02267919362867098</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.01538461538461539</v>
+        <v>0.01530612244897959</v>
       </c>
       <c r="R4" t="n">
-        <v>0.01025641025641026</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -1046,64 +1046,64 @@
         <v>4</v>
       </c>
       <c r="X4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Y4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>27</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="n">
         <v>6</v>
       </c>
-      <c r="Z4" t="n">
-        <v>33</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>116</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ4" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1118,21 +1118,21 @@
         <v>0</v>
       </c>
       <c r="AV4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>106</v>
+        <v>149</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://react.dev/_next/static/chunks/webpack-60ed361702411dc1.js</t>
+          <t>https://www.infowars.com/_next/static/chunks/commons.b761d06a31176680dd2f.js</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>n.e</t>
+          <t>c</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -1142,43 +1142,43 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H5" t="n">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8382978723404255</v>
       </c>
       <c r="J5" t="n">
-        <v>1.285714285714286</v>
+        <v>1.192893401015228</v>
       </c>
       <c r="K5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
       <c r="M5" t="n">
-        <v>4.285714285714286</v>
+        <v>3.192893401015228</v>
       </c>
       <c r="N5" t="n">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="O5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P5" t="n">
-        <v>0.03562328656668279</v>
+        <v>0.01763848396501458</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.01538461538461539</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="R5" t="n">
-        <v>0.005128205128205128</v>
+        <v>0.00510204081632653</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -1196,64 +1196,64 @@
         <v>4</v>
       </c>
       <c r="X5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="n">
         <v>7</v>
       </c>
-      <c r="Y5" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>31</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ5" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1273,11 +1273,11 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>107</v>
+        <v>150</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://react.dev/_next/static/chunks/pages/_app-731479a7b7e9ba1d.js</t>
+          <t>https://www.infowars.com/_next/static/chunks/commons.b761d06a31176680dd2f.js</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1289,46 +1289,46 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H6" t="n">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8382978723404255</v>
       </c>
       <c r="J6" t="n">
-        <v>1.285714285714286</v>
+        <v>1.192893401015228</v>
       </c>
       <c r="K6" t="n">
         <v>2</v>
       </c>
       <c r="L6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>3.285714285714286</v>
+        <v>3.192893401015228</v>
       </c>
       <c r="N6" t="n">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="O6" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P6" t="n">
-        <v>0.03039119000657462</v>
+        <v>0.01829268292682927</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01025641025641026</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="R6" t="n">
-        <v>0.01025641025641026</v>
+        <v>0.00510204081632653</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1346,13 +1346,13 @@
         <v>4</v>
       </c>
       <c r="X6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Y6" t="n">
         <v>12</v>
       </c>
       <c r="Z6" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="AA6" t="n">
         <v>0</v>
@@ -1364,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE6" t="n">
         <v>0</v>
@@ -1400,10 +1400,10 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AQ6" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -1423,38 +1423,38 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>108</v>
+        <v>151</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://react.dev/_next/static/chunks/pages/_app-731479a7b7e9ba1d.js</t>
+          <t>https://www.infowars.com/_next/static/chunks/commons.b761d06a31176680dd2f.js</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2957</t>
+          <t>loadRoute</t>
         </is>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H7" t="n">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="I7" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8382978723404255</v>
       </c>
       <c r="J7" t="n">
-        <v>1.285714285714286</v>
+        <v>1.192893401015228</v>
       </c>
       <c r="K7" t="n">
         <v>2</v>
@@ -1463,22 +1463,22 @@
         <v>1</v>
       </c>
       <c r="M7" t="n">
-        <v>3.285714285714286</v>
+        <v>3.192893401015228</v>
       </c>
       <c r="N7" t="n">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="O7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P7" t="n">
-        <v>0.03435525826830175</v>
+        <v>0.01907304978065993</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.01025641025641026</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="R7" t="n">
-        <v>0.005128205128205128</v>
+        <v>0.00510204081632653</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1496,13 +1496,13 @@
         <v>4</v>
       </c>
       <c r="X7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Y7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z7" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="AA7" t="n">
         <v>0</v>
@@ -1550,10 +1550,10 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AQ7" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -1573,62 +1573,62 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>109</v>
+        <v>152</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://react.dev/_next/static/chunks/webpack-60ed361702411dc1.js</t>
+          <t>https://www.infowars.com/_next/static/chunks/main-9656341cb4917a075767.js</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>n</t>
+          <t>value</t>
         </is>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H8" t="n">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8382978723404255</v>
       </c>
       <c r="J8" t="n">
-        <v>1.285714285714286</v>
+        <v>1.192893401015228</v>
       </c>
       <c r="K8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>5.285714285714286</v>
+        <v>3.192893401015228</v>
       </c>
       <c r="N8" t="n">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="O8" t="n">
         <v>26</v>
       </c>
       <c r="P8" t="n">
-        <v>0.039182030091121</v>
+        <v>0.01879425239483548</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.02051282051282051</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="R8" t="n">
-        <v>0.01025641025641026</v>
+        <v>0.00510204081632653</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1646,13 +1646,13 @@
         <v>4</v>
       </c>
       <c r="X8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Y8" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Z8" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="AA8" t="n">
         <v>0</v>
@@ -1664,13 +1664,13 @@
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE8" t="n">
         <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG8" t="n">
         <v>0</v>
@@ -1679,10 +1679,10 @@
         <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK8" t="n">
         <v>0</v>
@@ -1700,10 +1700,10 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AQ8" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -1723,61 +1723,65 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>110</v>
+        <v>153</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://react.dev/_next/static/chunks/pages/_app-731479a7b7e9ba1d.js</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
+          <t>https://www.infowars.com/_next/static/chunks/main-9656341cb4917a075767.js</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>se</t>
+        </is>
+      </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G9" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H9" t="n">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8382978723404255</v>
       </c>
       <c r="J9" t="n">
-        <v>1.285714285714286</v>
+        <v>1.192893401015228</v>
       </c>
       <c r="K9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>4.285714285714286</v>
+        <v>3.192893401015228</v>
       </c>
       <c r="N9" t="n">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="O9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P9" t="n">
-        <v>0.03619103542767665</v>
+        <v>0.01967930029154519</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.01538461538461539</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="R9" t="n">
-        <v>0.01025641025641026</v>
+        <v>0.00510204081632653</v>
       </c>
       <c r="S9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1792,13 +1796,13 @@
         <v>4</v>
       </c>
       <c r="X9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Y9" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Z9" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="AA9" t="n">
         <v>0</v>
@@ -1810,13 +1814,13 @@
         <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG9" t="n">
         <v>0</v>
@@ -1840,16 +1844,16 @@
         <v>0</v>
       </c>
       <c r="AN9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO9" t="n">
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AQ9" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -1869,11 +1873,11 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://react.dev/_next/static/chunks/main-edaa715c9bd404ce.js</t>
+          <t>https://www.infowars.com/_next/static/chunks/main-9656341cb4917a075767.js</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -1881,46 +1885,46 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H10" t="n">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8382978723404255</v>
       </c>
       <c r="J10" t="n">
-        <v>1.285714285714286</v>
+        <v>1.192893401015228</v>
       </c>
       <c r="K10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>4.285714285714286</v>
+        <v>3.192893401015228</v>
       </c>
       <c r="N10" t="n">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="O10" t="n">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="P10" t="n">
-        <v>0.03148212027135794</v>
+        <v>0.0207674619143432</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.01538461538461539</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="R10" t="n">
-        <v>0.02051282051282051</v>
+        <v>0.00510204081632653</v>
       </c>
       <c r="S10" t="n">
         <v>1</v>
@@ -1938,13 +1942,13 @@
         <v>4</v>
       </c>
       <c r="X10" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Y10" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Z10" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="AA10" t="n">
         <v>0</v>
@@ -1956,13 +1960,13 @@
         <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE10" t="n">
         <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG10" t="n">
         <v>0</v>
@@ -1971,10 +1975,10 @@
         <v>0</v>
       </c>
       <c r="AI10" t="n">
-        <v>241</v>
+        <v>0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="AK10" t="n">
         <v>0</v>
@@ -1992,10 +1996,10 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AQ10" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2015,38 +2019,38 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://react.dev/_next/static/chunks/main-edaa715c9bd404ce.js</t>
+          <t>https://www.infowars.com/_next/static/chunks/commons.b761d06a31176680dd2f.js</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>onEntrypoint</t>
+          <t>n</t>
         </is>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H11" t="n">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="I11" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8382978723404255</v>
       </c>
       <c r="J11" t="n">
-        <v>1.285714285714286</v>
+        <v>1.192893401015228</v>
       </c>
       <c r="K11" t="n">
         <v>2</v>
@@ -2055,22 +2059,22 @@
         <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>3.285714285714286</v>
+        <v>3.192893401015228</v>
       </c>
       <c r="N11" t="n">
         <v>16</v>
       </c>
       <c r="O11" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="P11" t="n">
-        <v>0.02735042735042735</v>
+        <v>0.02073210236475542</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.01025641025641026</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="R11" t="n">
-        <v>0.005128205128205128</v>
+        <v>0.00510204081632653</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -2088,13 +2092,13 @@
         <v>4</v>
       </c>
       <c r="X11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y11" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Z11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AA11" t="n">
         <v>0</v>
@@ -2142,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -2165,62 +2169,62 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://react.dev/_next/static/chunks/main-edaa715c9bd404ce.js</t>
+          <t>https://www.infowars.com/_next/static/chunks/commons.b761d06a31176680dd2f.js</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>s</t>
         </is>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H12" t="n">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8382978723404255</v>
       </c>
       <c r="J12" t="n">
-        <v>1.285714285714286</v>
+        <v>1.192893401015228</v>
       </c>
       <c r="K12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>4.285714285714286</v>
+        <v>3.192893401015228</v>
       </c>
       <c r="N12" t="n">
         <v>15</v>
       </c>
       <c r="O12" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="P12" t="n">
-        <v>0.03205128205128206</v>
+        <v>0.02207613814756672</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.01538461538461539</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="R12" t="n">
-        <v>0.005128205128205128</v>
+        <v>0.00510204081632653</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -2238,13 +2242,13 @@
         <v>4</v>
       </c>
       <c r="X12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y12" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Z12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA12" t="n">
         <v>0</v>
@@ -2277,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="AK12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL12" t="n">
         <v>0</v>
@@ -2292,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AQ12" t="n">
         <v>0</v>
@@ -2315,38 +2319,38 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>114</v>
+        <v>157</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://react.dev/_next/static/chunks/pages/_app-731479a7b7e9ba1d.js</t>
+          <t>https://www.infowars.com/_next/static/chunks/main-9656341cb4917a075767.js</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>6840</t>
+          <t>ce</t>
         </is>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H13" t="n">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="I13" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8382978723404255</v>
       </c>
       <c r="J13" t="n">
-        <v>1.285714285714286</v>
+        <v>1.192893401015228</v>
       </c>
       <c r="K13" t="n">
         <v>2</v>
@@ -2355,22 +2359,22 @@
         <v>1</v>
       </c>
       <c r="M13" t="n">
-        <v>3.285714285714286</v>
+        <v>3.192893401015228</v>
       </c>
       <c r="N13" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O13" t="n">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="P13" t="n">
-        <v>0.01806020066889632</v>
+        <v>0.01883830455259027</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.01025641025641026</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="R13" t="n">
-        <v>0.005128205128205128</v>
+        <v>0.00510204081632653</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -2391,10 +2395,10 @@
         <v>2</v>
       </c>
       <c r="Y13" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Z13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AA13" t="n">
         <v>0</v>
@@ -2442,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AQ13" t="n">
         <v>0</v>
@@ -2465,38 +2469,38 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>115</v>
+        <v>158</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://react.dev/_next/static/chunks/pages/_app-731479a7b7e9ba1d.js</t>
+          <t>https://www.infowars.com/_next/static/chunks/main-9656341cb4917a075767.js</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>ue</t>
         </is>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H14" t="n">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8382978723404255</v>
       </c>
       <c r="J14" t="n">
-        <v>1.285714285714286</v>
+        <v>1.192893401015228</v>
       </c>
       <c r="K14" t="n">
         <v>2</v>
@@ -2505,22 +2509,22 @@
         <v>1</v>
       </c>
       <c r="M14" t="n">
-        <v>3.285714285714286</v>
+        <v>3.192893401015228</v>
       </c>
       <c r="N14" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O14" t="n">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="P14" t="n">
-        <v>0.01823361823361823</v>
+        <v>0.01929209183673469</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.01025641025641026</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="R14" t="n">
-        <v>0.005128205128205128</v>
+        <v>0.00510204081632653</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -2541,10 +2545,10 @@
         <v>2</v>
       </c>
       <c r="Y14" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Z14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA14" t="n">
         <v>0</v>
@@ -2592,7 +2596,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AQ14" t="n">
         <v>0</v>
@@ -2615,62 +2619,62 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>116</v>
+        <v>159</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://react.dev/_next/static/chunks/webpack-60ed361702411dc1.js</t>
+          <t>https://www.infowars.com/_next/static/chunks/main-9656341cb4917a075767.js</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>n.O</t>
+          <t>BMP1</t>
         </is>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H15" t="n">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="I15" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8382978723404255</v>
       </c>
       <c r="J15" t="n">
-        <v>1.285714285714286</v>
+        <v>1.192893401015228</v>
       </c>
       <c r="K15" t="n">
         <v>2</v>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>3.285714285714286</v>
+        <v>3.192893401015228</v>
       </c>
       <c r="N15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O15" t="n">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="P15" t="n">
-        <v>0.01165501165501165</v>
+        <v>0.01962323390894819</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.01025641025641026</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="R15" t="n">
-        <v>0.01538461538461539</v>
+        <v>0.00510204081632653</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -2688,13 +2692,13 @@
         <v>4</v>
       </c>
       <c r="X15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y15" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Z15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA15" t="n">
         <v>0</v>
@@ -2706,7 +2710,7 @@
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE15" t="n">
         <v>0</v>
@@ -2742,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AQ15" t="n">
         <v>0</v>
@@ -2765,62 +2769,62 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>117</v>
+        <v>160</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://react.dev/_next/static/chunks/webpack-60ed361702411dc1.js</t>
+          <t>https://www.infowars.com/_next/static/chunks/webpack-245f049e565ebf942e09.js</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>l</t>
         </is>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G16" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H16" t="n">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="I16" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8382978723404255</v>
       </c>
       <c r="J16" t="n">
-        <v>1.285714285714286</v>
+        <v>1.192893401015228</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>2.285714285714286</v>
+        <v>3.192893401015228</v>
       </c>
       <c r="N16" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O16" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="P16" t="n">
-        <v>0.008205128205128205</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.005128205128205128</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="R16" t="n">
-        <v>0.005128205128205128</v>
+        <v>0.00510204081632653</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -2841,10 +2845,10 @@
         <v>1</v>
       </c>
       <c r="Y16" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="Z16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA16" t="n">
         <v>0</v>
@@ -2892,7 +2896,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AQ16" t="n">
         <v>0</v>
@@ -2915,16 +2919,16 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://react.dev/_next/static/chunks/webpack-60ed361702411dc1.js</t>
+          <t>https://www.infowars.com/_next/static/chunks/webpack-245f049e565ebf942e09.js</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>n.F.j</t>
+          <t>t</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -2934,43 +2938,43 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" t="n">
+        <v>197</v>
+      </c>
+      <c r="H17" t="n">
+        <v>235</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.8382978723404255</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1.192893401015228</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3.192893401015228</v>
+      </c>
+      <c r="N17" t="n">
         <v>6</v>
       </c>
-      <c r="G17" t="n">
-        <v>196</v>
-      </c>
-      <c r="H17" t="n">
-        <v>252</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1.285714285714286</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2</v>
-      </c>
-      <c r="L17" t="n">
-        <v>3</v>
-      </c>
-      <c r="M17" t="n">
-        <v>3.285714285714286</v>
-      </c>
-      <c r="N17" t="n">
-        <v>50</v>
-      </c>
       <c r="O17" t="n">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="P17" t="n">
-        <v>0.03483835005574135</v>
+        <v>0.01147959183673469</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.01025641025641026</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="R17" t="n">
-        <v>0.01538461538461539</v>
+        <v>0.00510204081632653</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -2985,79 +2989,79 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP17" t="n">
         <v>7</v>
       </c>
-      <c r="Y17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ17" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AR17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV17" t="n">
         <v>1</v>
@@ -3065,16 +3069,16 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>121</v>
+        <v>162</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://react.dev/_next/static/chunks/webpack-60ed361702411dc1.js</t>
+          <t>https://www.infowars.com/_next/static/chunks/webpack-245f049e565ebf942e09.js</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>n.E</t>
+          <t>r</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -3084,43 +3088,43 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H18" t="n">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="I18" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8382978723404255</v>
       </c>
       <c r="J18" t="n">
-        <v>1.285714285714286</v>
+        <v>1.192893401015228</v>
       </c>
       <c r="K18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>3.285714285714286</v>
+        <v>2.192893401015228</v>
       </c>
       <c r="N18" t="n">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="O18" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="P18" t="n">
-        <v>0.0291044776119403</v>
+        <v>0.008503401360544217</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.01025641025641026</v>
+        <v>0.00510204081632653</v>
       </c>
       <c r="R18" t="n">
-        <v>0.005128205128205128</v>
+        <v>0.00510204081632653</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -3138,64 +3142,64 @@
         <v>4</v>
       </c>
       <c r="X18" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Y18" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP18" t="n">
         <v>7</v>
       </c>
-      <c r="Z18" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ18" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
@@ -3215,61 +3219,65 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://react.dev/_next/static/chunks/pages/%5B%5B...markdownPath%5D%5D-dd620009e57bdb02.js</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
+          <t>https://securepubads.g.doubleclick.net/tag/js/gpt.js</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>hh</t>
+        </is>
+      </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G19" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H19" t="n">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="I19" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8382978723404255</v>
       </c>
       <c r="J19" t="n">
-        <v>1.285714285714286</v>
+        <v>1.192893401015228</v>
       </c>
       <c r="K19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19" t="n">
         <v>2</v>
       </c>
       <c r="M19" t="n">
-        <v>4.285714285714286</v>
+        <v>3.192893401015228</v>
       </c>
       <c r="N19" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="O19" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="P19" t="n">
-        <v>0.03151118385160939</v>
+        <v>0.01147959183673469</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.01538461538461539</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="R19" t="n">
-        <v>0.01025641025641026</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="S19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -3284,13 +3292,13 @@
         <v>4</v>
       </c>
       <c r="X19" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Y19" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Z19" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="AA19" t="n">
         <v>0</v>
@@ -3311,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH19" t="n">
         <v>0</v>
@@ -3323,13 +3331,13 @@
         <v>0</v>
       </c>
       <c r="AK19" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AL19" t="n">
         <v>0</v>
       </c>
       <c r="AM19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN19" t="n">
         <v>0</v>
@@ -3338,10 +3346,10 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AQ19" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
@@ -3356,70 +3364,66 @@
         <v>0</v>
       </c>
       <c r="AV19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://react.dev/_next/static/chunks/823-34bbafa831cb71a9.js</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>3814</t>
-        </is>
-      </c>
+          <t>https://securepubads.g.doubleclick.net/tag/js/gpt.js</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G20" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H20" t="n">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="I20" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8382978723404255</v>
       </c>
       <c r="J20" t="n">
-        <v>1.285714285714286</v>
+        <v>1.192893401015228</v>
       </c>
       <c r="K20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>3.285714285714286</v>
+        <v>2.192893401015228</v>
       </c>
       <c r="N20" t="n">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="O20" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="P20" t="n">
-        <v>0.03780934512641829</v>
+        <v>0.008503401360544217</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.01025641025641026</v>
+        <v>0.00510204081632653</v>
       </c>
       <c r="R20" t="n">
-        <v>0.005128205128205128</v>
+        <v>0.00510204081632653</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -3434,13 +3438,13 @@
         <v>4</v>
       </c>
       <c r="X20" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Y20" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="Z20" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AA20" t="n">
         <v>0</v>
@@ -3461,7 +3465,7 @@
         <v>0</v>
       </c>
       <c r="AG20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH20" t="n">
         <v>0</v>
@@ -3473,13 +3477,13 @@
         <v>0</v>
       </c>
       <c r="AK20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AL20" t="n">
         <v>0</v>
       </c>
       <c r="AM20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN20" t="n">
         <v>0</v>
@@ -3488,10 +3492,10 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AQ20" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AR20" t="n">
         <v>0</v>
@@ -3506,43 +3510,43 @@
         <v>0</v>
       </c>
       <c r="AV20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://react.dev/_next/static/chunks/pages/%5B%5B...markdownPath%5D%5D-dd620009e57bdb02.js</t>
+          <t>https://securepubads.g.doubleclick.net/tag/js/gpt.js</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2296</t>
+          <t>Yg</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G21" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H21" t="n">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="I21" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8382978723404255</v>
       </c>
       <c r="J21" t="n">
-        <v>1.285714285714286</v>
+        <v>1.192893401015228</v>
       </c>
       <c r="K21" t="n">
         <v>2</v>
@@ -3551,22 +3555,22 @@
         <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>3.285714285714286</v>
+        <v>3.192893401015228</v>
       </c>
       <c r="N21" t="n">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="O21" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="P21" t="n">
-        <v>0.02888888888888889</v>
+        <v>0.01653061224489796</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.01025641025641026</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="R21" t="n">
-        <v>0.005128205128205128</v>
+        <v>0.00510204081632653</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -3584,64 +3588,64 @@
         <v>4</v>
       </c>
       <c r="X21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP21" t="n">
         <v>6</v>
       </c>
-      <c r="Y21" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ21" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AR21" t="n">
         <v>0</v>
@@ -3656,43 +3660,43 @@
         <v>0</v>
       </c>
       <c r="AV21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://react.dev/_next/static/chunks/pages/%5B%5B...markdownPath%5D%5D-dd620009e57bdb02.js</t>
+          <t>https://securepubads.g.doubleclick.net/tag/js/gpt.js</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1180</t>
+          <t>Xg</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G22" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H22" t="n">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="I22" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8382978723404255</v>
       </c>
       <c r="J22" t="n">
-        <v>1.285714285714286</v>
+        <v>1.192893401015228</v>
       </c>
       <c r="K22" t="n">
         <v>2</v>
@@ -3701,22 +3705,22 @@
         <v>1</v>
       </c>
       <c r="M22" t="n">
-        <v>3.285714285714286</v>
+        <v>3.192893401015228</v>
       </c>
       <c r="N22" t="n">
         <v>8</v>
       </c>
       <c r="O22" t="n">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="P22" t="n">
-        <v>0.01823361823361823</v>
+        <v>0.01554907677356657</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.01025641025641026</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="R22" t="n">
-        <v>0.005128205128205128</v>
+        <v>0.00510204081632653</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -3734,13 +3738,13 @@
         <v>4</v>
       </c>
       <c r="X22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y22" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="Z22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA22" t="n">
         <v>0</v>
@@ -3773,7 +3777,7 @@
         <v>0</v>
       </c>
       <c r="AK22" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AL22" t="n">
         <v>0</v>
@@ -3788,10 +3792,10 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR22" t="n">
         <v>0</v>
@@ -3806,21 +3810,21 @@
         <v>0</v>
       </c>
       <c r="AV22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://react.dev/_next/static/chunks/893.d10d455739c0995e.js</t>
+          <t>https://securepubads.g.doubleclick.net/tag/js/gpt.js</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>o</t>
+          <t>bh</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -3830,118 +3834,118 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G23" t="n">
+        <v>197</v>
+      </c>
+      <c r="H23" t="n">
+        <v>235</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.8382978723404255</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1.192893401015228</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3.192893401015228</v>
+      </c>
+      <c r="N23" t="n">
+        <v>7</v>
+      </c>
+      <c r="O23" t="n">
+        <v>23</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.01388888888888889</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.01020408163265306</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.00510204081632653</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
         <v>4</v>
       </c>
-      <c r="G23" t="n">
-        <v>196</v>
-      </c>
-      <c r="H23" t="n">
-        <v>252</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1.285714285714286</v>
-      </c>
-      <c r="K23" t="n">
-        <v>2</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2</v>
-      </c>
-      <c r="M23" t="n">
-        <v>3.285714285714286</v>
-      </c>
-      <c r="N23" t="n">
-        <v>56</v>
-      </c>
-      <c r="O23" t="n">
-        <v>3</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0.03646723646723646</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0.01025641025641026</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0.01025641025641026</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
       <c r="X23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP23" t="n">
         <v>8</v>
       </c>
-      <c r="Y23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>38</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ23" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AR23" t="n">
         <v>0</v>
@@ -3956,21 +3960,21 @@
         <v>0</v>
       </c>
       <c r="AV23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://react.dev/_next/static/chunks/893.d10d455739c0995e.js</t>
+          <t>https://www.infowars.com/</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>value</t>
+          <t>__nr_require.loader</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -3980,67 +3984,67 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
+        <v>2</v>
+      </c>
+      <c r="G24" t="n">
+        <v>197</v>
+      </c>
+      <c r="H24" t="n">
+        <v>235</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.8382978723404255</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1.192893401015228</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3.192893401015228</v>
+      </c>
+      <c r="N24" t="n">
+        <v>6</v>
+      </c>
+      <c r="O24" t="n">
+        <v>23</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.0141287284144427</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.01020408163265306</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.00510204081632653</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
         <v>4</v>
       </c>
-      <c r="G24" t="n">
-        <v>196</v>
-      </c>
-      <c r="H24" t="n">
-        <v>252</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1.285714285714286</v>
-      </c>
-      <c r="K24" t="n">
-        <v>2</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="n">
-        <v>3.285714285714286</v>
-      </c>
-      <c r="N24" t="n">
-        <v>55</v>
-      </c>
-      <c r="O24" t="n">
-        <v>4</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0.03897693596186058</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0.01025641025641026</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0.005128205128205128</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" t="n">
-        <v>0</v>
-      </c>
       <c r="X24" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="Y24" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="Z24" t="n">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="AA24" t="n">
         <v>0</v>
@@ -4082,16 +4086,16 @@
         <v>0</v>
       </c>
       <c r="AN24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO24" t="n">
         <v>0</v>
       </c>
       <c r="AP24" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AQ24" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AR24" t="n">
         <v>0</v>
@@ -4106,21 +4110,21 @@
         <v>0</v>
       </c>
       <c r="AV24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://react.dev/_next/static/chunks/893.d10d455739c0995e.js</t>
+          <t>https://www.infowars.com/</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>x</t>
+          <t>__nr_require.1</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -4130,67 +4134,67 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
+        <v>2</v>
+      </c>
+      <c r="G25" t="n">
+        <v>197</v>
+      </c>
+      <c r="H25" t="n">
+        <v>235</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.8382978723404255</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1.192893401015228</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3.192893401015228</v>
+      </c>
+      <c r="N25" t="n">
+        <v>5</v>
+      </c>
+      <c r="O25" t="n">
+        <v>24</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.01159554730983302</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.01020408163265306</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0.00510204081632653</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
         <v>4</v>
       </c>
-      <c r="G25" t="n">
-        <v>196</v>
-      </c>
-      <c r="H25" t="n">
-        <v>252</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1.285714285714286</v>
-      </c>
-      <c r="K25" t="n">
-        <v>2</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="n">
-        <v>3.285714285714286</v>
-      </c>
-      <c r="N25" t="n">
-        <v>54</v>
-      </c>
-      <c r="O25" t="n">
-        <v>5</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0.04212351029252438</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0.01025641025641026</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0.005128205128205128</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
       <c r="X25" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="Y25" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="Z25" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="AA25" t="n">
         <v>0</v>
@@ -4205,10 +4209,10 @@
         <v>1</v>
       </c>
       <c r="AE25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG25" t="n">
         <v>0</v>
@@ -4232,16 +4236,16 @@
         <v>0</v>
       </c>
       <c r="AN25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO25" t="n">
         <v>0</v>
       </c>
       <c r="AP25" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AQ25" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AR25" t="n">
         <v>0</v>
@@ -4256,125 +4260,121 @@
         <v>0</v>
       </c>
       <c r="AV25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://react.dev/_next/static/chunks/main-edaa715c9bd404ce.js</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Z</t>
-        </is>
-      </c>
+          <t>https://www.infowars.com/</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H26" t="n">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="I26" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8382978723404255</v>
       </c>
       <c r="J26" t="n">
-        <v>1.285714285714286</v>
+        <v>1.192893401015228</v>
       </c>
       <c r="K26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2.192893401015228</v>
+      </c>
+      <c r="N26" t="n">
+        <v>4</v>
+      </c>
+      <c r="O26" t="n">
+        <v>25</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.008163265306122448</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.00510204081632653</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.00510204081632653</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>4</v>
+      </c>
+      <c r="X26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>27</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK26" t="n">
         <v>3</v>
       </c>
-      <c r="M26" t="n">
-        <v>3.285714285714286</v>
-      </c>
-      <c r="N26" t="n">
-        <v>40</v>
-      </c>
-      <c r="O26" t="n">
-        <v>6</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0.02501563477173233</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0.01025641025641026</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0.01538461538461539</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>0</v>
-      </c>
       <c r="AL26" t="n">
         <v>0</v>
       </c>
@@ -4388,61 +4388,61 @@
         <v>0</v>
       </c>
       <c r="AP26" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AQ26" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AR26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>https://react.dev/_next/static/chunks/main-edaa715c9bd404ce.js</t>
+          <t>https://js-agent.newrelic.com/nr-spa-1177.min.js</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>p</t>
+          <t>i</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G27" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H27" t="n">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="I27" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8382978723404255</v>
       </c>
       <c r="J27" t="n">
-        <v>1.285714285714286</v>
+        <v>1.192893401015228</v>
       </c>
       <c r="K27" t="n">
         <v>2</v>
@@ -4451,22 +4451,22 @@
         <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>3.285714285714286</v>
+        <v>3.192893401015228</v>
       </c>
       <c r="N27" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="O27" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="P27" t="n">
-        <v>0.02671232876712329</v>
+        <v>0.03194058688564183</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.01025641025641026</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="R27" t="n">
-        <v>0.005128205128205128</v>
+        <v>0.00510204081632653</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -4481,16 +4481,16 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X27" t="n">
         <v>6</v>
       </c>
       <c r="Y27" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="Z27" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AA27" t="n">
         <v>0</v>
@@ -4538,10 +4538,10 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AQ27" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AR27" t="n">
         <v>0</v>
@@ -4556,67 +4556,67 @@
         <v>0</v>
       </c>
       <c r="AV27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>153</v>
+        <v>184</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>https://react.dev/_next/static/chunks/main-edaa715c9bd404ce.js</t>
+          <t>https://js-agent.newrelic.com/nr-spa-1177.min.js</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>r</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G28" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H28" t="n">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="I28" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8382978723404255</v>
       </c>
       <c r="J28" t="n">
-        <v>1.285714285714286</v>
+        <v>1.192893401015228</v>
       </c>
       <c r="K28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M28" t="n">
-        <v>3.285714285714286</v>
+        <v>4.192893401015228</v>
       </c>
       <c r="N28" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="O28" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="P28" t="n">
-        <v>0.02881372842462337</v>
+        <v>0.03194058688564183</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.01025641025641026</v>
+        <v>0.01530612244897959</v>
       </c>
       <c r="R28" t="n">
-        <v>0.005128205128205128</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -4631,16 +4631,16 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X28" t="n">
         <v>6</v>
       </c>
       <c r="Y28" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="Z28" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AA28" t="n">
         <v>0</v>
@@ -4652,7 +4652,7 @@
         <v>0</v>
       </c>
       <c r="AD28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE28" t="n">
         <v>0</v>
@@ -4673,7 +4673,7 @@
         <v>0</v>
       </c>
       <c r="AK28" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AL28" t="n">
         <v>0</v>
@@ -4688,10 +4688,10 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AQ28" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AR28" t="n">
         <v>0</v>
@@ -4706,70 +4706,66 @@
         <v>0</v>
       </c>
       <c r="AV28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>154</v>
+        <v>185</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>https://react.dev/_next/static/chunks/main-edaa715c9bd404ce.js</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>n</t>
-        </is>
-      </c>
+          <t>https://js-agent.newrelic.com/nr-spa-1177.min.js</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G29" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H29" t="n">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="I29" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8382978723404255</v>
       </c>
       <c r="J29" t="n">
-        <v>1.285714285714286</v>
+        <v>1.192893401015228</v>
       </c>
       <c r="K29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M29" t="n">
-        <v>3.285714285714286</v>
+        <v>4.192893401015228</v>
       </c>
       <c r="N29" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="O29" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P29" t="n">
-        <v>0.01784750337381916</v>
+        <v>0.03194058688564183</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.01025641025641026</v>
+        <v>0.01530612244897959</v>
       </c>
       <c r="R29" t="n">
-        <v>0.005128205128205128</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -4784,13 +4780,13 @@
         <v>4</v>
       </c>
       <c r="X29" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Y29" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="Z29" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="AA29" t="n">
         <v>0</v>
@@ -4802,7 +4798,7 @@
         <v>0</v>
       </c>
       <c r="AD29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE29" t="n">
         <v>0</v>
@@ -4823,7 +4819,7 @@
         <v>0</v>
       </c>
       <c r="AK29" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AL29" t="n">
         <v>0</v>
@@ -4838,10 +4834,10 @@
         <v>0</v>
       </c>
       <c r="AP29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AQ29" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AR29" t="n">
         <v>0</v>
@@ -4856,67 +4852,67 @@
         <v>0</v>
       </c>
       <c r="AV29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>https://react.dev/_next/static/chunks/main-edaa715c9bd404ce.js</t>
+          <t>https://js-agent.newrelic.com/nr-spa-1177.min.js</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>s</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G30" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H30" t="n">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="I30" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8382978723404255</v>
       </c>
       <c r="J30" t="n">
-        <v>1.285714285714286</v>
+        <v>1.192893401015228</v>
       </c>
       <c r="K30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M30" t="n">
-        <v>3.285714285714286</v>
+        <v>2.192893401015228</v>
       </c>
       <c r="N30" t="n">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="O30" t="n">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="P30" t="n">
-        <v>0.01866203971467129</v>
+        <v>0.03067022263450835</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.01025641025641026</v>
+        <v>0.00510204081632653</v>
       </c>
       <c r="R30" t="n">
-        <v>0.005128205128205128</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -4934,13 +4930,13 @@
         <v>4</v>
       </c>
       <c r="X30" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Y30" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="Z30" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="AA30" t="n">
         <v>0</v>
@@ -4952,7 +4948,7 @@
         <v>0</v>
       </c>
       <c r="AD30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE30" t="n">
         <v>0</v>
@@ -4973,7 +4969,7 @@
         <v>0</v>
       </c>
       <c r="AK30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL30" t="n">
         <v>0</v>
@@ -4988,10 +4984,10 @@
         <v>0</v>
       </c>
       <c r="AP30" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AQ30" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AR30" t="n">
         <v>0</v>
@@ -5006,43 +5002,43 @@
         <v>0</v>
       </c>
       <c r="AV30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>156</v>
+        <v>193</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>https://react.dev/_next/static/chunks/main-edaa715c9bd404ce.js</t>
+          <t>https://js-agent.newrelic.com/nr-spa-1177.min.js</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>prefetch</t>
+          <t>r.xhr</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G31" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H31" t="n">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="I31" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8382978723404255</v>
       </c>
       <c r="J31" t="n">
-        <v>1.285714285714286</v>
+        <v>1.192893401015228</v>
       </c>
       <c r="K31" t="n">
         <v>2</v>
@@ -5051,22 +5047,22 @@
         <v>1</v>
       </c>
       <c r="M31" t="n">
-        <v>3.285714285714286</v>
+        <v>3.192893401015228</v>
       </c>
       <c r="N31" t="n">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="O31" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="P31" t="n">
-        <v>0.01966555183946488</v>
+        <v>0.03194058688564183</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.01025641025641026</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="R31" t="n">
-        <v>0.005128205128205128</v>
+        <v>0.00510204081632653</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -5084,13 +5080,13 @@
         <v>4</v>
       </c>
       <c r="X31" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Y31" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="Z31" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="AA31" t="n">
         <v>0</v>
@@ -5123,7 +5119,7 @@
         <v>0</v>
       </c>
       <c r="AK31" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AL31" t="n">
         <v>0</v>
@@ -5138,10 +5134,10 @@
         <v>0</v>
       </c>
       <c r="AP31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AQ31" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AR31" t="n">
         <v>0</v>
@@ -5156,43 +5152,43 @@
         <v>0</v>
       </c>
       <c r="AV31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>157</v>
+        <v>194</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>https://react.dev/_next/static/chunks/main-edaa715c9bd404ce.js</t>
+          <t>https://js-agent.newrelic.com/nr-spa-1177.min.js</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>n.&lt;computed&gt;</t>
+          <t>u</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G32" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H32" t="n">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="I32" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8382978723404255</v>
       </c>
       <c r="J32" t="n">
-        <v>1.285714285714286</v>
+        <v>1.192893401015228</v>
       </c>
       <c r="K32" t="n">
         <v>2</v>
@@ -5201,22 +5197,22 @@
         <v>1</v>
       </c>
       <c r="M32" t="n">
-        <v>3.285714285714286</v>
+        <v>3.192893401015228</v>
       </c>
       <c r="N32" t="n">
+        <v>46</v>
+      </c>
+      <c r="O32" t="n">
         <v>20</v>
       </c>
-      <c r="O32" t="n">
-        <v>43</v>
-      </c>
       <c r="P32" t="n">
-        <v>0.02093144950287807</v>
+        <v>0.0321307094266278</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.01025641025641026</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="R32" t="n">
-        <v>0.005128205128205128</v>
+        <v>0.00510204081632653</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -5234,65 +5230,65 @@
         <v>4</v>
       </c>
       <c r="X32" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Y32" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="Z32" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ32" t="n">
         <v>12</v>
       </c>
-      <c r="AA32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP32" t="n">
-        <v>3</v>
-      </c>
-      <c r="AQ32" t="n">
-        <v>5</v>
-      </c>
       <c r="AR32" t="n">
         <v>0</v>
       </c>
@@ -5306,43 +5302,43 @@
         <v>0</v>
       </c>
       <c r="AV32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>https://react.dev/_next/static/chunks/500-b7d1070ff1511342.js</t>
+          <t>https://js-agent.newrelic.com/nr-spa-1177.min.js</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>g</t>
+          <t>f</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G33" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H33" t="n">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="I33" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8382978723404255</v>
       </c>
       <c r="J33" t="n">
-        <v>1.285714285714286</v>
+        <v>1.192893401015228</v>
       </c>
       <c r="K33" t="n">
         <v>2</v>
@@ -5351,22 +5347,22 @@
         <v>1</v>
       </c>
       <c r="M33" t="n">
-        <v>3.285714285714286</v>
+        <v>3.192893401015228</v>
       </c>
       <c r="N33" t="n">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="O33" t="n">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="P33" t="n">
-        <v>0.01876014281077572</v>
+        <v>0.0321307094266278</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.01025641025641026</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="R33" t="n">
-        <v>0.005128205128205128</v>
+        <v>0.00510204081632653</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -5384,13 +5380,13 @@
         <v>4</v>
       </c>
       <c r="X33" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Y33" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="Z33" t="n">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="AA33" t="n">
         <v>0</v>
@@ -5423,7 +5419,7 @@
         <v>0</v>
       </c>
       <c r="AK33" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AL33" t="n">
         <v>0</v>
@@ -5438,10 +5434,10 @@
         <v>0</v>
       </c>
       <c r="AP33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AQ33" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AR33" t="n">
         <v>0</v>
@@ -5456,39 +5452,43 @@
         <v>0</v>
       </c>
       <c r="AV33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>https://react.dev/_next/static/chunks/500-b7d1070ff1511342.js</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr"/>
+          <t>https://js-agent.newrelic.com/nr-spa-1177.min.js</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G34" t="n">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H34" t="n">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="I34" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8382978723404255</v>
       </c>
       <c r="J34" t="n">
-        <v>1.285714285714286</v>
+        <v>1.192893401015228</v>
       </c>
       <c r="K34" t="n">
         <v>2</v>
@@ -5497,25 +5497,25 @@
         <v>1</v>
       </c>
       <c r="M34" t="n">
-        <v>3.285714285714286</v>
+        <v>3.192893401015228</v>
       </c>
       <c r="N34" t="n">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="O34" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="P34" t="n">
-        <v>0.01989121989121989</v>
+        <v>0.0318463668653302</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.01025641025641026</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="R34" t="n">
-        <v>0.005128205128205128</v>
+        <v>0.00510204081632653</v>
       </c>
       <c r="S34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -5530,13 +5530,13 @@
         <v>4</v>
       </c>
       <c r="X34" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Y34" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="Z34" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="AA34" t="n">
         <v>0</v>
@@ -5575,7 +5575,7 @@
         <v>0</v>
       </c>
       <c r="AM34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN34" t="n">
         <v>0</v>
@@ -5584,10 +5584,10 @@
         <v>0</v>
       </c>
       <c r="AP34" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AQ34" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AR34" t="n">
         <v>0</v>
@@ -5602,1953 +5602,7 @@
         <v>0</v>
       </c>
       <c r="AV34" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>160</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>https://react.dev/_next/static/chunks/framework-16708cc67af783c0.js</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Ki</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>6</v>
-      </c>
-      <c r="G35" t="n">
-        <v>196</v>
-      </c>
-      <c r="H35" t="n">
-        <v>252</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="J35" t="n">
-        <v>1.285714285714286</v>
-      </c>
-      <c r="K35" t="n">
-        <v>2</v>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="n">
-        <v>3.285714285714286</v>
-      </c>
-      <c r="N35" t="n">
-        <v>13</v>
-      </c>
-      <c r="O35" t="n">
-        <v>46</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0.01699346405228758</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0.01025641025641026</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0.005128205128205128</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>4</v>
-      </c>
-      <c r="X35" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP35" t="n">
-        <v>3</v>
-      </c>
-      <c r="AQ35" t="n">
-        <v>4</v>
-      </c>
-      <c r="AR35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU35" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>161</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>https://react.dev/_next/static/chunks/framework-16708cc67af783c0.js</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>vs</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>6</v>
-      </c>
-      <c r="G36" t="n">
-        <v>196</v>
-      </c>
-      <c r="H36" t="n">
-        <v>252</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1.285714285714286</v>
-      </c>
-      <c r="K36" t="n">
-        <v>2</v>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="n">
-        <v>3.285714285714286</v>
-      </c>
-      <c r="N36" t="n">
-        <v>12</v>
-      </c>
-      <c r="O36" t="n">
-        <v>47</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0.01758241758241758</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0.01025641025641026</v>
-      </c>
-      <c r="R36" t="n">
-        <v>0.005128205128205128</v>
-      </c>
-      <c r="S36" t="n">
-        <v>0</v>
-      </c>
-      <c r="T36" t="n">
-        <v>0</v>
-      </c>
-      <c r="U36" t="n">
-        <v>0</v>
-      </c>
-      <c r="V36" t="n">
-        <v>0</v>
-      </c>
-      <c r="W36" t="n">
-        <v>4</v>
-      </c>
-      <c r="X36" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>27</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP36" t="n">
-        <v>4</v>
-      </c>
-      <c r="AQ36" t="n">
-        <v>3</v>
-      </c>
-      <c r="AR36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU36" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV36" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>162</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>https://react.dev/_next/static/chunks/framework-16708cc67af783c0.js</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>ks</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>6</v>
-      </c>
-      <c r="G37" t="n">
-        <v>196</v>
-      </c>
-      <c r="H37" t="n">
-        <v>252</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1.285714285714286</v>
-      </c>
-      <c r="K37" t="n">
-        <v>2</v>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="n">
-        <v>3.285714285714286</v>
-      </c>
-      <c r="N37" t="n">
-        <v>11</v>
-      </c>
-      <c r="O37" t="n">
-        <v>48</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0.01825037707390649</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0.01025641025641026</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0.005128205128205128</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>4</v>
-      </c>
-      <c r="X37" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP37" t="n">
-        <v>5</v>
-      </c>
-      <c r="AQ37" t="n">
-        <v>2</v>
-      </c>
-      <c r="AR37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV37" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>163</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>https://react.dev/_next/static/chunks/framework-16708cc67af783c0.js</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>bs</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>6</v>
-      </c>
-      <c r="G38" t="n">
-        <v>196</v>
-      </c>
-      <c r="H38" t="n">
-        <v>252</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1.285714285714286</v>
-      </c>
-      <c r="K38" t="n">
-        <v>2</v>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="n">
-        <v>3.285714285714286</v>
-      </c>
-      <c r="N38" t="n">
-        <v>10</v>
-      </c>
-      <c r="O38" t="n">
-        <v>49</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0.01899335232668566</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0.01025641025641026</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0.005128205128205128</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>4</v>
-      </c>
-      <c r="X38" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP38" t="n">
-        <v>6</v>
-      </c>
-      <c r="AQ38" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU38" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV38" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>164</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>https://react.dev/_next/static/chunks/framework-16708cc67af783c0.js</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Mc</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>6</v>
-      </c>
-      <c r="G39" t="n">
-        <v>196</v>
-      </c>
-      <c r="H39" t="n">
-        <v>252</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1.285714285714286</v>
-      </c>
-      <c r="K39" t="n">
-        <v>2</v>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="n">
-        <v>3.285714285714286</v>
-      </c>
-      <c r="N39" t="n">
-        <v>9</v>
-      </c>
-      <c r="O39" t="n">
-        <v>50</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0.01978021978021978</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0.01025641025641026</v>
-      </c>
-      <c r="R39" t="n">
-        <v>0.005128205128205128</v>
-      </c>
-      <c r="S39" t="n">
-        <v>0</v>
-      </c>
-      <c r="T39" t="n">
-        <v>0</v>
-      </c>
-      <c r="U39" t="n">
-        <v>0</v>
-      </c>
-      <c r="V39" t="n">
-        <v>0</v>
-      </c>
-      <c r="W39" t="n">
-        <v>4</v>
-      </c>
-      <c r="X39" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP39" t="n">
-        <v>7</v>
-      </c>
-      <c r="AQ39" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV39" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>165</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>https://react.dev/_next/static/chunks/framework-16708cc67af783c0.js</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>22</v>
-      </c>
-      <c r="G40" t="n">
-        <v>196</v>
-      </c>
-      <c r="H40" t="n">
-        <v>252</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="J40" t="n">
-        <v>1.285714285714286</v>
-      </c>
-      <c r="K40" t="n">
-        <v>3</v>
-      </c>
-      <c r="L40" t="n">
-        <v>2</v>
-      </c>
-      <c r="M40" t="n">
-        <v>4.285714285714286</v>
-      </c>
-      <c r="N40" t="n">
-        <v>8</v>
-      </c>
-      <c r="O40" t="n">
-        <v>71</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0.02051282051282051</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0.01538461538461539</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0.01025641025641026</v>
-      </c>
-      <c r="S40" t="n">
-        <v>1</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>4</v>
-      </c>
-      <c r="X40" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>16</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO40" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP40" t="n">
-        <v>7</v>
-      </c>
-      <c r="AQ40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU40" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV40" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>166</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>https://react.dev/_next/static/chunks/framework-16708cc67af783c0.js</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>22</v>
-      </c>
-      <c r="G41" t="n">
-        <v>196</v>
-      </c>
-      <c r="H41" t="n">
-        <v>252</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1.285714285714286</v>
-      </c>
-      <c r="K41" t="n">
-        <v>2</v>
-      </c>
-      <c r="L41" t="n">
-        <v>2</v>
-      </c>
-      <c r="M41" t="n">
-        <v>3.285714285714286</v>
-      </c>
-      <c r="N41" t="n">
-        <v>5</v>
-      </c>
-      <c r="O41" t="n">
-        <v>74</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0.01165501165501165</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0.01025641025641026</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0.01025641025641026</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>4</v>
-      </c>
-      <c r="X41" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>37</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP41" t="n">
-        <v>8</v>
-      </c>
-      <c r="AQ41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU41" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV41" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>167</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>https://react.dev/_next/static/chunks/framework-16708cc67af783c0.js</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
-        <v>11</v>
-      </c>
-      <c r="G42" t="n">
-        <v>196</v>
-      </c>
-      <c r="H42" t="n">
-        <v>252</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1.285714285714286</v>
-      </c>
-      <c r="K42" t="n">
-        <v>1</v>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="n">
-        <v>2.285714285714286</v>
-      </c>
-      <c r="N42" t="n">
-        <v>4</v>
-      </c>
-      <c r="O42" t="n">
-        <v>75</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0.008205128205128205</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0.005128205128205128</v>
-      </c>
-      <c r="R42" t="n">
-        <v>0.005128205128205128</v>
-      </c>
-      <c r="S42" t="n">
-        <v>0</v>
-      </c>
-      <c r="T42" t="n">
-        <v>0</v>
-      </c>
-      <c r="U42" t="n">
-        <v>0</v>
-      </c>
-      <c r="V42" t="n">
-        <v>0</v>
-      </c>
-      <c r="W42" t="n">
-        <v>4</v>
-      </c>
-      <c r="X42" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>38</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ42" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP42" t="n">
-        <v>8</v>
-      </c>
-      <c r="AQ42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU42" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV42" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>177</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>https://react.dev/_next/static/chunks/framework-16708cc67af783c0.js</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>ie</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>16</v>
-      </c>
-      <c r="G43" t="n">
-        <v>196</v>
-      </c>
-      <c r="H43" t="n">
-        <v>252</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1.285714285714286</v>
-      </c>
-      <c r="K43" t="n">
-        <v>2</v>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="n">
-        <v>3.285714285714286</v>
-      </c>
-      <c r="N43" t="n">
-        <v>11</v>
-      </c>
-      <c r="O43" t="n">
-        <v>17</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0.01825037707390649</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0.01025641025641026</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0.005128205128205128</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
-      </c>
-      <c r="X43" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ43" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV43" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>178</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>https://react.dev/_next/static/chunks/framework-16708cc67af783c0.js</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>fs</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>16</v>
-      </c>
-      <c r="G44" t="n">
-        <v>196</v>
-      </c>
-      <c r="H44" t="n">
-        <v>252</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1.285714285714286</v>
-      </c>
-      <c r="K44" t="n">
-        <v>2</v>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="n">
-        <v>3.285714285714286</v>
-      </c>
-      <c r="N44" t="n">
-        <v>10</v>
-      </c>
-      <c r="O44" t="n">
-        <v>18</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0.01899335232668566</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0.01025641025641026</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0.005128205128205128</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ44" t="n">
-        <v>16</v>
-      </c>
-      <c r="AK44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ44" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU44" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV44" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>179</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>https://react.dev/_next/static/chunks/framework-16708cc67af783c0.js</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>cs</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
-        <v>16</v>
-      </c>
-      <c r="G45" t="n">
-        <v>196</v>
-      </c>
-      <c r="H45" t="n">
-        <v>252</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1.285714285714286</v>
-      </c>
-      <c r="K45" t="n">
-        <v>2</v>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="n">
-        <v>3.285714285714286</v>
-      </c>
-      <c r="N45" t="n">
-        <v>9</v>
-      </c>
-      <c r="O45" t="n">
-        <v>19</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0.01978021978021978</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0.01025641025641026</v>
-      </c>
-      <c r="R45" t="n">
-        <v>0.005128205128205128</v>
-      </c>
-      <c r="S45" t="n">
-        <v>0</v>
-      </c>
-      <c r="T45" t="n">
-        <v>0</v>
-      </c>
-      <c r="U45" t="n">
-        <v>0</v>
-      </c>
-      <c r="V45" t="n">
-        <v>0</v>
-      </c>
-      <c r="W45" t="n">
-        <v>0</v>
-      </c>
-      <c r="X45" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z45" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ45" t="n">
-        <v>16</v>
-      </c>
-      <c r="AK45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ45" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU45" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV45" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>180</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>https://react.dev/_next/static/chunks/framework-16708cc67af783c0.js</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Lc</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>16</v>
-      </c>
-      <c r="G46" t="n">
-        <v>196</v>
-      </c>
-      <c r="H46" t="n">
-        <v>252</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1.285714285714286</v>
-      </c>
-      <c r="K46" t="n">
-        <v>2</v>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="n">
-        <v>3.285714285714286</v>
-      </c>
-      <c r="N46" t="n">
-        <v>7</v>
-      </c>
-      <c r="O46" t="n">
-        <v>72</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0.0157051282051282</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0.01025641025641026</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0.005128205128205128</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>4</v>
-      </c>
-      <c r="X46" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>35</v>
-      </c>
-      <c r="Z46" t="n">
-        <v>3</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP46" t="n">
-        <v>8</v>
-      </c>
-      <c r="AQ46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU46" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV46" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>181</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>https://react.dev/_next/static/chunks/framework-16708cc67af783c0.js</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>mc</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>16</v>
-      </c>
-      <c r="G47" t="n">
-        <v>196</v>
-      </c>
-      <c r="H47" t="n">
-        <v>252</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1.285714285714286</v>
-      </c>
-      <c r="K47" t="n">
-        <v>2</v>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="n">
-        <v>3.285714285714286</v>
-      </c>
-      <c r="N47" t="n">
-        <v>6</v>
-      </c>
-      <c r="O47" t="n">
-        <v>73</v>
-      </c>
-      <c r="P47" t="n">
-        <v>0.01420118343195266</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>0.01025641025641026</v>
-      </c>
-      <c r="R47" t="n">
-        <v>0.005128205128205128</v>
-      </c>
-      <c r="S47" t="n">
-        <v>0</v>
-      </c>
-      <c r="T47" t="n">
-        <v>0</v>
-      </c>
-      <c r="U47" t="n">
-        <v>0</v>
-      </c>
-      <c r="V47" t="n">
-        <v>0</v>
-      </c>
-      <c r="W47" t="n">
-        <v>4</v>
-      </c>
-      <c r="X47" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y47" t="n">
-        <v>36</v>
-      </c>
-      <c r="Z47" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ47" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP47" t="n">
-        <v>8</v>
-      </c>
-      <c r="AQ47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
